--- a/data/output/FV2310_FV2304/INVOIC/31003.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="336">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="336">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1189,6 +1189,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U199" totalsRowShown="0">
+  <autoFilter ref="A1:U199"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,7 +1508,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10522,5 +10555,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31003.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31003.xlsx
@@ -1731,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1754,6 +1754,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1762,6 +1765,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2202,7 +2208,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2538,7 +2544,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2960,7 +2966,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3150,7 +3156,7 @@
         <v>303</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3338,7 +3344,7 @@
         <v>303</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3526,7 +3532,7 @@
         <v>304</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3716,7 +3722,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3806,7 +3812,7 @@
         <v>305</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2"/>
@@ -3946,7 +3952,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4136,7 +4142,7 @@
         <v>306</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4328,7 +4334,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5040,7 +5046,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5282,7 +5288,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5468,7 +5474,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5828,7 +5834,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6542,7 +6548,7 @@
         <v>311</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6772,20 +6778,20 @@
       <c r="B96" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M96" s="5"/>
@@ -6803,25 +6809,25 @@
       <c r="A97" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M97" s="5"/>
@@ -6839,31 +6845,31 @@
       <c r="A98" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M98" s="5"/>
@@ -6881,29 +6887,29 @@
       <c r="A99" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M99" s="5"/>
@@ -6921,31 +6927,31 @@
       <c r="A100" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="K100" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L100" s="9" t="s">
+      <c r="L100" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M100" s="5"/>
@@ -6963,29 +6969,29 @@
       <c r="A101" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M101" s="5"/>
@@ -7003,29 +7009,29 @@
       <c r="A102" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="J102" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M102" s="5"/>
@@ -7043,29 +7049,29 @@
       <c r="A103" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="J103" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>329</v>
       </c>
       <c r="M103" s="5"/>
@@ -7093,25 +7099,25 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11" t="s">
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V104" s="11"/>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7127,27 +7133,27 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V105" s="11"/>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7163,33 +7169,33 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11" t="s">
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="U106" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="V106" s="11"/>
+      <c r="U106" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7205,31 +7211,31 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7245,31 +7251,31 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="V108" s="11" t="s">
+      <c r="V108" s="13" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7287,31 +7293,31 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="U109" s="11" t="s">
+      <c r="U109" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="V109" s="11"/>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -7327,31 +7333,31 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="U110" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="V110" s="11"/>
+      <c r="U110" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7367,31 +7373,31 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="U111" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="V111" s="11"/>
+      <c r="U111" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="2" t="s">
@@ -7416,7 +7422,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7566,7 +7572,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7808,7 +7814,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7944,7 +7950,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8146,7 +8152,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8392,7 +8398,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8602,7 +8608,7 @@
         <v>319</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8922,7 +8928,7 @@
         <v>322</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9126,7 +9132,7 @@
         <v>322</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9330,7 +9336,7 @@
         <v>323</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9534,7 +9540,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9722,7 +9728,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10078,7 +10084,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10482,7 +10488,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N173" s="2"/>
@@ -10570,7 +10576,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10758,7 +10764,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10946,7 +10952,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11352,7 +11358,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11502,7 +11508,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -11650,7 +11656,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N197" s="2"/>
